--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkStuff\MOSIP\githubrepos\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BC0CE-5E92-4E20-AF7D-F887BCE28038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1F3C3F-F87C-4EC4-998E-540ADF7E7492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,13 +42,13 @@
     <t>eng</t>
   </si>
   <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>globaladmin</t>
   </si>
   <si>
     <t>service-account-mosip-resident-client</t>
+  </si>
+  <si>
+    <t>ZA</t>
   </si>
 </sst>
 </file>
@@ -70,7 +70,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -434,7 +434,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="3" t="b">
         <v>1</v>
@@ -478,10 +478,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="b">
         <v>1</v>
